--- a/Excel/HorseData.xlsx
+++ b/Excel/HorseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10715" windowHeight="4452"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
     <t>时间戳 -1代表空闲状态</t>
   </si>
   <si>
-    <t>F-00YY-PU-W1-G2-DP15</t>
+    <t>F-00-YY-PU-W1-G2-DP15</t>
   </si>
   <si>
     <t>小赤兔</t>
@@ -206,7 +206,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>F-00GG-CA-B1-B2-DP14</t>
+    <t>F-00-GG-CA-B1-B2-DP14</t>
   </si>
   <si>
     <t>小赤兔1</t>
@@ -215,7 +215,7 @@
     <t>3｜3</t>
   </si>
   <si>
-    <t>F-00RR-GR-Y1-W2-DP18</t>
+    <t>F-00-RR-GR-Y1-W2-DP18</t>
   </si>
   <si>
     <t>小赤兔2</t>
@@ -224,7 +224,7 @@
     <t>3｜4</t>
   </si>
   <si>
-    <t>F-00GG-GR-O1-R2-DP13</t>
+    <t>F-00-GG-GR-O1-R2-DP13</t>
   </si>
   <si>
     <t>小赤兔3</t>
@@ -233,7 +233,7 @@
     <t>3｜5</t>
   </si>
   <si>
-    <t>F-00YY-PU-R1-W2-DP18</t>
+    <t>F-00-YY-PU-R1-W2-DP18</t>
   </si>
   <si>
     <t>小赤兔4</t>
@@ -242,7 +242,7 @@
     <t>3｜6</t>
   </si>
   <si>
-    <t>F-00BB-GR-G1-Y2-DP18</t>
+    <t>F-00-BB-GR-G1-Y2-DP18</t>
   </si>
   <si>
     <t>小赤兔5</t>
@@ -251,7 +251,7 @@
     <t>3｜7</t>
   </si>
   <si>
-    <t>F-00GG-CA-W1-O2-DP08</t>
+    <t>F-00-GG-CA-W1-O2-DP08</t>
   </si>
   <si>
     <t>小赤兔6</t>
@@ -260,7 +260,7 @@
     <t>3｜8</t>
   </si>
   <si>
-    <t>F-00GG-SU-Y1-Y2-DP02</t>
+    <t>F-00-GG-SU-Y1-Y2-DP02</t>
   </si>
   <si>
     <t>小赤兔7</t>
@@ -269,7 +269,7 @@
     <t>3｜9</t>
   </si>
   <si>
-    <t>F-00BB-OC-O1-B2-DP07</t>
+    <t>F-00-BB-OC-O1-B2-DP07</t>
   </si>
   <si>
     <t>小赤兔8</t>
@@ -278,7 +278,7 @@
     <t>3｜10</t>
   </si>
   <si>
-    <t>F-00RR-SU-W1-R2-DP18</t>
+    <t>F-00-RR-SU-W1-R2-DP18</t>
   </si>
   <si>
     <t>小赤兔9</t>
@@ -287,7 +287,7 @@
     <t>3｜11</t>
   </si>
   <si>
-    <t>F-00WW-CA-W1-R2-DP20</t>
+    <t>F-00-WW-CA-W1-R2-DP20</t>
   </si>
   <si>
     <t>小赤兔11</t>
@@ -296,7 +296,7 @@
     <t>3｜12</t>
   </si>
   <si>
-    <t>F-00GG-OC-O1-R2-DP09</t>
+    <t>F-00-GG-OC-O1-R2-DP09</t>
   </si>
   <si>
     <t>小赤兔112</t>
@@ -305,7 +305,7 @@
     <t>3｜13</t>
   </si>
   <si>
-    <t>F-00WW-SU-W1-W2-DP16</t>
+    <t>F-00-WW-SU-W1-W2-DP16</t>
   </si>
   <si>
     <t>小赤兔123</t>
@@ -314,7 +314,7 @@
     <t>3｜14</t>
   </si>
   <si>
-    <t>F-00RR-PU-Y1-R2-DP01</t>
+    <t>F-00-RR-PU-Y1-R2-DP01</t>
   </si>
   <si>
     <t>小赤兔1234</t>
@@ -323,7 +323,7 @@
     <t>3｜15</t>
   </si>
   <si>
-    <t>F-00GG-OC-R1-R2-DP07</t>
+    <t>F-00-GG-OC-R1-R2-DP07</t>
   </si>
   <si>
     <t>3｜16</t>
@@ -1476,8 +1476,8 @@
   <sheetPr/>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>

--- a/Excel/HorseData.xlsx
+++ b/Excel/HorseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10715" windowHeight="4452"/>
+    <workbookView windowWidth="14930" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
     <t>时间戳 -1代表空闲状态</t>
   </si>
   <si>
-    <t>F-00YY-PU-W1-G2-DP15</t>
+    <t>F-00-WW-PU-R1-Y2-DP20</t>
   </si>
   <si>
     <t>小赤兔</t>
@@ -206,7 +206,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>F-00GG-CA-B1-B2-DP14</t>
+    <t>F-00-GG-CA-B1-B2-DP14</t>
   </si>
   <si>
     <t>小赤兔1</t>
@@ -215,7 +215,7 @@
     <t>3｜3</t>
   </si>
   <si>
-    <t>F-00RR-GR-Y1-W2-DP18</t>
+    <t>F-00-RR-GR-Y1-W2-DP18</t>
   </si>
   <si>
     <t>小赤兔2</t>
@@ -224,7 +224,7 @@
     <t>3｜4</t>
   </si>
   <si>
-    <t>F-00GG-GR-O1-R2-DP13</t>
+    <t>F-00-GG-GR-O1-R2-DP13</t>
   </si>
   <si>
     <t>小赤兔3</t>
@@ -233,7 +233,7 @@
     <t>3｜5</t>
   </si>
   <si>
-    <t>F-00YY-PU-R1-W2-DP18</t>
+    <t>F-00-YY-PU-R1-W2-DP18</t>
   </si>
   <si>
     <t>小赤兔4</t>
@@ -242,7 +242,7 @@
     <t>3｜6</t>
   </si>
   <si>
-    <t>F-00BB-GR-G1-Y2-DP18</t>
+    <t>F-00-BB-GR-G1-Y2-DP18</t>
   </si>
   <si>
     <t>小赤兔5</t>
@@ -251,7 +251,7 @@
     <t>3｜7</t>
   </si>
   <si>
-    <t>F-00GG-CA-W1-O2-DP08</t>
+    <t>F-00-GG-CA-W1-O2-DP08</t>
   </si>
   <si>
     <t>小赤兔6</t>
@@ -260,7 +260,7 @@
     <t>3｜8</t>
   </si>
   <si>
-    <t>F-00GG-SU-Y1-Y2-DP02</t>
+    <t>F-00-GG-SU-Y1-Y2-DP02</t>
   </si>
   <si>
     <t>小赤兔7</t>
@@ -269,7 +269,7 @@
     <t>3｜9</t>
   </si>
   <si>
-    <t>F-00BB-OC-O1-B2-DP07</t>
+    <t>F-00-BB-OC-O1-B2-DP07</t>
   </si>
   <si>
     <t>小赤兔8</t>
@@ -278,7 +278,7 @@
     <t>3｜10</t>
   </si>
   <si>
-    <t>F-00RR-SU-W1-R2-DP18</t>
+    <t>F-00-RR-SU-W1-R2-DP18</t>
   </si>
   <si>
     <t>小赤兔9</t>
@@ -287,7 +287,7 @@
     <t>3｜11</t>
   </si>
   <si>
-    <t>F-00WW-CA-W1-R2-DP20</t>
+    <t>F-00-WW-CA-W1-R2-DP20</t>
   </si>
   <si>
     <t>小赤兔11</t>
@@ -296,34 +296,34 @@
     <t>3｜12</t>
   </si>
   <si>
-    <t>F-00GG-OC-O1-R2-DP09</t>
-  </si>
-  <si>
-    <t>小赤兔112</t>
+    <t>F-00-GG-OC-O1-R2-DP09</t>
+  </si>
+  <si>
+    <t>小赤兔12</t>
   </si>
   <si>
     <t>3｜13</t>
   </si>
   <si>
-    <t>F-00WW-SU-W1-W2-DP16</t>
-  </si>
-  <si>
-    <t>小赤兔123</t>
+    <t>F-00-WW-SU-W1-W2-DP16</t>
+  </si>
+  <si>
+    <t>小赤兔13</t>
   </si>
   <si>
     <t>3｜14</t>
   </si>
   <si>
-    <t>F-00RR-PU-Y1-R2-DP01</t>
-  </si>
-  <si>
-    <t>小赤兔1234</t>
+    <t>F-00-RR-PU-Y1-R2-DP01</t>
+  </si>
+  <si>
+    <t>小赤兔14</t>
   </si>
   <si>
     <t>3｜15</t>
   </si>
   <si>
-    <t>F-00GG-OC-R1-R2-DP07</t>
+    <t>小赤兔15</t>
   </si>
   <si>
     <t>3｜16</t>
@@ -1476,41 +1476,41 @@
   <sheetPr/>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23148148148148" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.22727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.69444444444444" customWidth="1"/>
-    <col min="2" max="2" width="27.6944444444444" customWidth="1"/>
-    <col min="3" max="3" width="8.15740740740741" customWidth="1"/>
-    <col min="4" max="4" width="6.69444444444444" customWidth="1"/>
-    <col min="5" max="5" width="10.9259259259259" customWidth="1"/>
-    <col min="6" max="6" width="10.8425925925926" customWidth="1"/>
-    <col min="7" max="7" width="6.69444444444444" customWidth="1"/>
-    <col min="8" max="8" width="8.37962962962963" customWidth="1"/>
-    <col min="9" max="9" width="8.15740740740741" customWidth="1"/>
-    <col min="10" max="10" width="15.3055555555556" customWidth="1"/>
-    <col min="11" max="11" width="15.2314814814815" customWidth="1"/>
-    <col min="12" max="12" width="10.462962962963" customWidth="1"/>
-    <col min="13" max="13" width="12.537037037037" customWidth="1"/>
-    <col min="14" max="14" width="11.9259259259259" customWidth="1"/>
-    <col min="15" max="15" width="6.84259259259259" customWidth="1"/>
-    <col min="16" max="16" width="6.69444444444444" customWidth="1"/>
-    <col min="17" max="17" width="12.7685185185185" customWidth="1"/>
-    <col min="18" max="18" width="18.1574074074074" customWidth="1"/>
-    <col min="19" max="19" width="20.537037037037" customWidth="1"/>
-    <col min="20" max="20" width="17.3796296296296" customWidth="1"/>
-    <col min="21" max="21" width="22.1574074074074" customWidth="1"/>
-    <col min="22" max="22" width="24.7685185185185" customWidth="1"/>
-    <col min="23" max="23" width="24.6203703703704" customWidth="1"/>
-    <col min="24" max="24" width="21.3796296296296" customWidth="1"/>
-    <col min="25" max="25" width="15.1574074074074" customWidth="1"/>
+    <col min="1" max="1" width="7.69090909090909" customWidth="1"/>
+    <col min="2" max="2" width="27.6909090909091" customWidth="1"/>
+    <col min="3" max="3" width="13.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="6.69090909090909" customWidth="1"/>
+    <col min="5" max="5" width="10.9272727272727" customWidth="1"/>
+    <col min="6" max="6" width="10.8454545454545" customWidth="1"/>
+    <col min="7" max="7" width="6.69090909090909" customWidth="1"/>
+    <col min="8" max="8" width="8.38181818181818" customWidth="1"/>
+    <col min="9" max="9" width="8.15454545454545" customWidth="1"/>
+    <col min="10" max="10" width="15.3090909090909" customWidth="1"/>
+    <col min="11" max="11" width="15.2272727272727" customWidth="1"/>
+    <col min="12" max="12" width="10.4636363636364" customWidth="1"/>
+    <col min="13" max="13" width="12.5363636363636" customWidth="1"/>
+    <col min="14" max="14" width="11.9272727272727" customWidth="1"/>
+    <col min="15" max="15" width="6.84545454545455" customWidth="1"/>
+    <col min="16" max="16" width="6.69090909090909" customWidth="1"/>
+    <col min="17" max="17" width="12.7727272727273" customWidth="1"/>
+    <col min="18" max="18" width="18.1545454545455" customWidth="1"/>
+    <col min="19" max="19" width="20.5363636363636" customWidth="1"/>
+    <col min="20" max="20" width="17.3818181818182" customWidth="1"/>
+    <col min="21" max="21" width="22.1545454545455" customWidth="1"/>
+    <col min="22" max="22" width="24.7727272727273" customWidth="1"/>
+    <col min="23" max="23" width="24.6181818181818" customWidth="1"/>
+    <col min="24" max="24" width="21.3818181818182" customWidth="1"/>
+    <col min="25" max="25" width="15.1545454545455" customWidth="1"/>
     <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="6.69444444444444" customWidth="1"/>
-    <col min="28" max="28" width="8.15740740740741" customWidth="1"/>
-    <col min="29" max="29" width="24.9259259259259" customWidth="1"/>
+    <col min="27" max="27" width="6.69090909090909" customWidth="1"/>
+    <col min="28" max="28" width="8.15454545454545" customWidth="1"/>
+    <col min="29" max="29" width="24.9272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3045,10 +3045,10 @@
         <v>1015</v>
       </c>
       <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>99</v>
